--- a/EXCEL_OUPUT/Spicers (NZ) Limited_Financial Statements Dec 2022.xlsx
+++ b/EXCEL_OUPUT/Spicers (NZ) Limited_Financial Statements Dec 2022.xlsx
@@ -24,18 +24,58 @@
     <sheet name="page15_table0" sheetId="15" r:id="rId15"/>
     <sheet name="page15_table1" sheetId="16" r:id="rId16"/>
     <sheet name="page14_table0" sheetId="17" r:id="rId17"/>
-    <sheet name="page10_table0" sheetId="18" r:id="rId18"/>
-    <sheet name="page8_table0" sheetId="19" r:id="rId19"/>
-    <sheet name="page7_table0" sheetId="20" r:id="rId20"/>
-    <sheet name="page6_table0" sheetId="21" r:id="rId21"/>
-    <sheet name="page6_table1" sheetId="22" r:id="rId22"/>
+    <sheet name="page13_table0" sheetId="18" r:id="rId18"/>
+    <sheet name="page12_table0" sheetId="19" r:id="rId19"/>
+    <sheet name="page11_table0" sheetId="20" r:id="rId20"/>
+    <sheet name="page10_table0" sheetId="21" r:id="rId21"/>
+    <sheet name="page9_table0" sheetId="22" r:id="rId22"/>
+    <sheet name="page8_table0" sheetId="23" r:id="rId23"/>
+    <sheet name="page7_table0" sheetId="24" r:id="rId24"/>
+    <sheet name="page6_table0" sheetId="25" r:id="rId25"/>
+    <sheet name="page6_table1" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="657">
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Contingent consideration payable</t>
+  </si>
+  <si>
+    <t>Total consideration paid/payable</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>20554</t>
+  </si>
+  <si>
+    <t>1725</t>
+  </si>
+  <si>
+    <t>22279</t>
+  </si>
+  <si>
+    <t>Total consideralionpaidpayable</t>
+  </si>
+  <si>
+    <t>Fair valueofidentifiable assets</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>12007</t>
+  </si>
+  <si>
+    <t>10272</t>
+  </si>
   <si>
     <t>Cash and cash equivalents</t>
   </si>
@@ -67,9 +107,6 @@
     <t>Total net identifiable assets</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>758</t>
   </si>
   <si>
@@ -97,39 +134,6 @@
     <t>(118)</t>
   </si>
   <si>
-    <t>12007</t>
-  </si>
-  <si>
-    <t>Total consideralionpaidpayable</t>
-  </si>
-  <si>
-    <t>Fair valueofidentifiable assets</t>
-  </si>
-  <si>
-    <t>Goodwill</t>
-  </si>
-  <si>
-    <t>22279</t>
-  </si>
-  <si>
-    <t>10272</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Contingent consideration payable</t>
-  </si>
-  <si>
-    <t>Total consideration paid/payable</t>
-  </si>
-  <si>
-    <t>20554</t>
-  </si>
-  <si>
-    <t>1725</t>
-  </si>
-  <si>
     <t>Lease liabilities</t>
   </si>
   <si>
@@ -202,39 +206,78 @@
     <t>8832</t>
   </si>
   <si>
+    <t>Universal Packaging Limited</t>
+  </si>
+  <si>
     <t>Shareholding</t>
   </si>
   <si>
-    <t>Universal Packaging Limited</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>December 2022</t>
+  </si>
+  <si>
+    <t>KPP Antalis Singapore PTE Limited</t>
+  </si>
+  <si>
+    <t>Kokusai Pulp &amp; Paper Co Limited</t>
+  </si>
+  <si>
+    <t>Spicers Australia Pty Limited</t>
+  </si>
+  <si>
+    <t>Spicers Limited</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Products sold or services rendered</t>
+  </si>
+  <si>
+    <t>Product purchased or services received</t>
+  </si>
+  <si>
+    <t>(1,486)</t>
+  </si>
+  <si>
+    <t>(3,060)</t>
+  </si>
+  <si>
+    <t>(172)</t>
+  </si>
+  <si>
+    <t>(413)</t>
+  </si>
+  <si>
+    <t>(5,131)</t>
+  </si>
+  <si>
+    <t>Balances receivable</t>
+  </si>
+  <si>
+    <t>Balances payable</t>
+  </si>
+  <si>
+    <t>(513)</t>
+  </si>
+  <si>
+    <t>(1,338)</t>
+  </si>
+  <si>
+    <t>(31)</t>
+  </si>
+  <si>
+    <t>(1,882)</t>
   </si>
   <si>
     <t>December 2021</t>
   </si>
   <si>
-    <t>KPP Antalis Singapore PTE Limited</t>
-  </si>
-  <si>
-    <t>Kokusai Pulp &amp; Paper Co Limited</t>
-  </si>
-  <si>
-    <t>Spicers Australia Pty Limited</t>
-  </si>
-  <si>
-    <t>Spicers Limited</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
-  </si>
-  <si>
-    <t>Products sold or services rendered</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>Product purchased or services received</t>
-  </si>
-  <si>
     <t>(1,393)</t>
   </si>
   <si>
@@ -253,9 +296,6 @@
     <t>receivable</t>
   </si>
   <si>
-    <t>Balances payable</t>
-  </si>
-  <si>
     <t>(179)</t>
   </si>
   <si>
@@ -268,42 +308,6 @@
     <t>(1,790)</t>
   </si>
   <si>
-    <t>December 2022</t>
-  </si>
-  <si>
-    <t>(1,486)</t>
-  </si>
-  <si>
-    <t>(3,060)</t>
-  </si>
-  <si>
-    <t>(172)</t>
-  </si>
-  <si>
-    <t>(413)</t>
-  </si>
-  <si>
-    <t>(5,131)</t>
-  </si>
-  <si>
-    <t>Balances receivable</t>
-  </si>
-  <si>
-    <t>(513)</t>
-  </si>
-  <si>
-    <t>(1,338)</t>
-  </si>
-  <si>
-    <t>(31)</t>
-  </si>
-  <si>
-    <t>(1,882)</t>
-  </si>
-  <si>
-    <t>Classification December 2022</t>
-  </si>
-  <si>
     <t>Trade and other receivables (including derivative assets)</t>
   </si>
   <si>
@@ -334,7 +338,7 @@
     <t>458</t>
   </si>
   <si>
-    <t>Loans and Other receivables cost</t>
+    <t>Loans and receivables</t>
   </si>
   <si>
     <t>21021</t>
@@ -349,6 +353,9 @@
     <t>16621</t>
   </si>
   <si>
+    <t>Other cost</t>
+  </si>
+  <si>
     <t>19630</t>
   </si>
   <si>
@@ -382,9 +389,6 @@
     <t>77</t>
   </si>
   <si>
-    <t>Loans and receivables</t>
-  </si>
-  <si>
     <t>21766</t>
   </si>
   <si>
@@ -580,7 +584,7 @@
     <t>At31 December 2022</t>
   </si>
   <si>
-    <t>At31 December 2021</t>
+    <t>Carrying Amount At31 December 2021</t>
   </si>
   <si>
     <t>Plant and machinery</t>
@@ -874,9 +878,6 @@
     <t>12750</t>
   </si>
   <si>
-    <t>Deferred tax assets and liabilities are</t>
-  </si>
-  <si>
     <t>Leases</t>
   </si>
   <si>
@@ -892,9 +893,6 @@
     <t>Other items</t>
   </si>
   <si>
-    <t>to the</t>
-  </si>
-  <si>
     <t>Assets</t>
   </si>
   <si>
@@ -973,7 +971,7 @@
     <t>1223</t>
   </si>
   <si>
-    <t>4 Income tax expense</t>
+    <t>Income tax expense</t>
   </si>
   <si>
     <t>Current tax expense</t>
@@ -1063,402 +1061,786 @@
     <t>(30)</t>
   </si>
   <si>
+    <t>Revenue by region and Other operating income</t>
+  </si>
+  <si>
+    <t>Revenue by region</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>South Island</t>
+  </si>
+  <si>
+    <t>Other operating income</t>
+  </si>
+  <si>
+    <t>Rental income from property sub-leases</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>2 Other operating expenses</t>
+  </si>
+  <si>
+    <t>Impairment of trade receivables (bad and doubtful debts)</t>
+  </si>
+  <si>
+    <t>Net Gain (Loss) on disposal of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>3 Net financing costs</t>
+  </si>
+  <si>
+    <t>Interest income</t>
+  </si>
+  <si>
+    <t>Foreign exchange gains</t>
+  </si>
+  <si>
+    <t>Finance income</t>
+  </si>
+  <si>
+    <t>Interest expense right of use liabilities</t>
+  </si>
+  <si>
+    <t>Foreign exchange losses</t>
+  </si>
+  <si>
+    <t>Finance expenses</t>
+  </si>
+  <si>
+    <t>Net finance costs</t>
+  </si>
+  <si>
+    <t>81441</t>
+  </si>
+  <si>
+    <t>20183</t>
+  </si>
+  <si>
+    <t>26883</t>
+  </si>
+  <si>
+    <t>128507</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>(298)</t>
+  </si>
+  <si>
+    <t>(4,705)</t>
+  </si>
+  <si>
+    <t>(5,011)</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>(1,405)</t>
+  </si>
+  <si>
+    <t>(199)</t>
+  </si>
+  <si>
+    <t>(1,604)</t>
+  </si>
+  <si>
+    <t>(1,591)</t>
+  </si>
+  <si>
+    <t>68107</t>
+  </si>
+  <si>
+    <t>15671</t>
+  </si>
+  <si>
+    <t>20972</t>
+  </si>
+  <si>
+    <t>104750</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>(73)</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>(3,582)</t>
+  </si>
+  <si>
+    <t>(3,638)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>(840)</t>
+  </si>
+  <si>
+    <t>(875)</t>
+  </si>
+  <si>
+    <t>(630)</t>
+  </si>
+  <si>
+    <t>The Group uses derivative</t>
+  </si>
+  <si>
+    <t>operational, financing and</t>
+  </si>
+  <si>
+    <t>financial instruments for</t>
+  </si>
+  <si>
+    <t>accounted for as trading instruments.</t>
+  </si>
+  <si>
+    <t>Derivative financial instruments are recognised initially at fair value and transaction</t>
+  </si>
+  <si>
+    <t>initial recognition, derivative financial instruments are stated at fair value. The</t>
+  </si>
+  <si>
+    <t>recognised immediately in profit or loss in net financing costs.</t>
+  </si>
+  <si>
+    <t>Income taxes</t>
+  </si>
+  <si>
+    <t>The income tax expense</t>
+  </si>
+  <si>
+    <t>The income tax expense comprises and deferred tax. Income tax expense is recognised in profit or loss except to the extent it relates to items recognised directly in equity, in which case it is recognised in equity. Current tax is the expected tax on the taxable payable on the taxable income for the year, using the tax rates enacted or substantively enacted at the reporting date, and any adjustment to tax payable in respect of previous years.</t>
+  </si>
+  <si>
+    <t>Deferred tax is recognised</t>
+  </si>
+  <si>
+    <t>assets and liabilities for financialreporting purposes and the</t>
+  </si>
+  <si>
+    <t>temporary differences: the</t>
+  </si>
+  <si>
+    <t>neither accounting nor taxable profit. Deferred tax is measured at the tax rates</t>
+  </si>
+  <si>
+    <t>differences when they reverse, based on the laws that have</t>
+  </si>
+  <si>
+    <t>A deferred tax asset is recognised to the extent that it is</t>
+  </si>
+  <si>
+    <t>temporary difference can be utilised. Deferred tax assets are reviewed at each reporting date and are reduced to the extent that it is no longer probable that the related tax benefit will be realised.</t>
+  </si>
+  <si>
+    <t>Goods and services tax</t>
+  </si>
+  <si>
+    <t>Allamounts are shown exclusive of Goods and Services Tax (GST), except for receivables and payables that are stated inclusive of GST.</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>investment</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>using the</t>
+  </si>
+  <si>
+    <t>initialrecognition of assets and</t>
+  </si>
+  <si>
+    <t>instruments to hedge</t>
+  </si>
+  <si>
+    <t>activities. In accordance with the treasury</t>
+  </si>
+  <si>
+    <t>purposes. However, the</t>
+  </si>
+  <si>
+    <t>and deferred tax. Income tax expense is recognised in profit or loss except to the extent it</t>
+  </si>
+  <si>
+    <t>balance sheet method,</t>
+  </si>
+  <si>
+    <t>its exposure to foreign exchange and</t>
+  </si>
+  <si>
+    <t>Group is not adopting hedge accounting; therefore,</t>
+  </si>
+  <si>
+    <t>providing for temporary differences</t>
+  </si>
+  <si>
+    <t>amounts for tax purposes. Deferred tax is notrecognised</t>
+  </si>
+  <si>
+    <t>liabilities in a transaction</t>
+  </si>
+  <si>
+    <t>been enacted or substantively enacted at the reporting</t>
+  </si>
+  <si>
+    <t>probable that future</t>
+  </si>
+  <si>
+    <t>policy, the Group</t>
+  </si>
+  <si>
+    <t>costs are expensed immediately. Subsequent to</t>
+  </si>
+  <si>
+    <t>gain or loss on</t>
+  </si>
+  <si>
+    <t>that is not a business combination</t>
+  </si>
+  <si>
+    <t>that are expected</t>
+  </si>
+  <si>
+    <t>taxable profits will be available</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>does not</t>
+  </si>
+  <si>
+    <t>re-measurement</t>
+  </si>
+  <si>
+    <t>between the carrying amounts of</t>
+  </si>
+  <si>
+    <t>to be applied</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>hold or issue derivative</t>
+  </si>
+  <si>
+    <t>risks arising from</t>
+  </si>
+  <si>
+    <t>derivatives are</t>
+  </si>
+  <si>
+    <t>to fair value is</t>
+  </si>
+  <si>
+    <t>for the following</t>
+  </si>
+  <si>
+    <t>and that affects</t>
+  </si>
+  <si>
+    <t>to the temporary</t>
+  </si>
+  <si>
+    <t>dates.</t>
+  </si>
+  <si>
+    <t>against which the</t>
+  </si>
+  <si>
+    <t>of GST.</t>
+  </si>
+  <si>
+    <t>Interest-bearing loans borrowings</t>
+  </si>
+  <si>
+    <t>Interest-bearing borrowings are recognised initially at fair value less attributable transaction costs. Subsequent to initial recognition,</t>
+  </si>
+  <si>
+    <t>interest-bearing borrowings are stated at amortised cost with any difference between cost and redemption value being recognised in profit or loss the period of the borrowings on an effective interest basis.</t>
+  </si>
+  <si>
+    <t>Share capital</t>
+  </si>
+  <si>
+    <t>Ordinary Shares</t>
+  </si>
+  <si>
+    <t>Incremental costs directly attributable to the issue of ordinary shares and share options are recognised as a deduction from equity.</t>
+  </si>
+  <si>
+    <t>Defined contribution pension plans</t>
+  </si>
+  <si>
+    <t>Obligations for contributions to defined contribution pension plans are recognised as an expense in profit or loss as incurred.</t>
+  </si>
+  <si>
+    <t>Long service leave</t>
+  </si>
+  <si>
+    <t>The Group's net obligation in respect of long service leave is the amount of future benefit that employees have earned in return for</t>
+  </si>
+  <si>
+    <t>their service in the current and prior periods. The obligation is calculated</t>
+  </si>
+  <si>
+    <t>its present value. The discount rate is the market yield on relevant New Zealand Government Stock at the balance date.</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>A provision is recognised when the Group has a present legal or constructive obligation as a result of a past event, and it is probable that an outflow of economic benefits will be required to settle the obligation. If the effect is material, provisions are determined by discounting the expected future cashflows at a pre-tax rate thatreflects current market rates and, whereappropriate, the risks specific to the liability.</t>
+  </si>
+  <si>
+    <t>Trade and payables are stated at cost. On initial recognition and subsequent re-measurement, they are stated at amortised cost.</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Revenue from the sale of goods is recognised in profit or loss when the control of ownership has been transferred to the buyer. No is recognisedifthere are significant uncertainties regarding recovery of the consideration due, associated costs or the possible return of goods, or where there is continuing management involvement with the goods.</t>
+  </si>
+  <si>
+    <t>New and amended standards adopted</t>
+  </si>
+  <si>
+    <t>There were no accounting standard cha nges during the year.</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Net financing costs</t>
+  </si>
+  <si>
+    <t>Net financing costs comprise interest payable on borrowing calculated using the effective interestrate method, interest receivable on the funds invested and foreign exchange gains and losses that are recognised in profit and loss.</t>
+  </si>
+  <si>
+    <t>Interest income is recognised in profit and loss as it accrues, using the effective interest method. The interest expense on loans and</t>
+  </si>
+  <si>
+    <t>borrowings is recognised in profit and loss using the effective interest method.</t>
+  </si>
+  <si>
+    <t>Foreign currency transactions</t>
+  </si>
+  <si>
+    <t>Transactions in foreign currencies are translated at the foreign exchange rate ruling at the date of the transaction. Monetary assets and liabilities denominated in foreign currencies at the balance date are translated to NZD at the foreign exchange rate ruling at that</t>
+  </si>
+  <si>
+    <t>date. Foreign exchange differences arising on their translation are recognised in profit or loss.</t>
+  </si>
+  <si>
+    <t>Derivative financial instruments</t>
+  </si>
+  <si>
+    <t>using the projected unit credit method and is discounted to</t>
+  </si>
+  <si>
+    <t>Impairment</t>
+  </si>
+  <si>
+    <t>The carrying amounts of the Group's assets are reviewed at each balance date to determine there is any impairment. The assets recoverable amount is estimated.</t>
+  </si>
+  <si>
+    <t>Animpairment loss is recognised whenever the carrying amount of an asset or its cash-generating unit exceeds its recoverable</t>
+  </si>
+  <si>
+    <t>Impairment losses are recognised in profit or loss.</t>
+  </si>
+  <si>
+    <t>Impairment losses recognised in respect of cash-generating units are allocated first to reduce the carrying amount of any goodwill allocated to cash-generating units (group of units) and then to reduce the carrying amount of the other assets in the unit (group of units).</t>
+  </si>
+  <si>
+    <t>The recoverable amount of the Group's</t>
+  </si>
+  <si>
+    <t>The recoverable amount of the Group's receivables carried at amortised cost is calculated at the present day value of the future cash flows, discounted at the original effective interest rate (i.e. the effective interest rate computed at initial recognition of the financial assets). Receivables with a short duration are not discounted. The recoverable amount of other assets is the greater of their fair value less costs to sell and value in use. In assessing value in use, the estimated future cash flows are discounted to their present value using a pre-tax discount rate that reflects the current market assessment of the time value of money and the risks specific to the asset, to the extent that the risks have not been reflected in the cash flows. For an asset that does not generate largely independent cash flows, the recoverable amount is determined for the cash- generating unit to which the asset belongs.</t>
+  </si>
+  <si>
+    <t>Impairment losses, other than in respect of goodwill, are reversed when there is an indication that the impairment loss no longer exists and there has been a change in the used to determine the recoverable amount. An impairment loss in respect of</t>
+  </si>
+  <si>
+    <t>goodwill is not reversed.</t>
+  </si>
+  <si>
+    <t>An impairment loss in respect of a receivable carried at amortised cost is reversed if the subsequent increase in recoverable amount can be related objectively to an event occurring after the impairment loss was recognised.</t>
+  </si>
+  <si>
+    <t>An impairment loss is reversed only to the extent that the asset's carrying does not exceed the carrying amount that would</t>
+  </si>
+  <si>
+    <t>have been determined, net of depreciation or amortisation, if no impairment loss had been recognised.</t>
+  </si>
+  <si>
+    <t>Non derivative financial instruments</t>
+  </si>
+  <si>
+    <t>Non-derivative comprise trade and other receivables, internal receivables, cash and cash equivalents, loans and borrowings, and trade and other payables.</t>
+  </si>
+  <si>
+    <t>Non-derivative financial instruments are recognised initially at fair value plus, for instruments not at fair value through profit or loss, any directly attributable transaction costs. Subsequent to initial recognition non-derivative financial instruments are measured as described below.</t>
+  </si>
+  <si>
+    <t>A financial instrument is recognised if the Group becomes a party to the contractual provisions of the instrument. Financialassets are</t>
+  </si>
+  <si>
+    <t>derecognised if the Group's contractual rights to the cash flows from the financial assets expire or if the Group transfers the financial asset to another party without retaining control or substantially all the risks and rewards of the asset.</t>
+  </si>
+  <si>
+    <t>Regular purchases and sales of financial</t>
+  </si>
+  <si>
+    <t>or sell the asset. Financial liabilities are derecognised if the Group's obligations specified in the contract expire or are discharged or cancelled.</t>
+  </si>
+  <si>
+    <t>Amounts due from related parties and trade and other receivables are classified as loans and receivables and are stated at amortised cost using the effective interest rate method, less impairment losses.</t>
+  </si>
+  <si>
+    <t>Trade and other payables and amounts due to related parties are classified as financial liabilities and measured at amortised cost using the effective interest rate method.</t>
+  </si>
+  <si>
+    <t>receivables carried at amortised cost is calculated at the present day value of the future cash</t>
+  </si>
+  <si>
+    <t>assets are accounted for at trade date, i.e., the date that the Group commits itself to purchase</t>
+  </si>
+  <si>
+    <t>Furniture and fittings</t>
+  </si>
+  <si>
+    <t>Motor vehicles</t>
+  </si>
+  <si>
+    <t>Office equipment</t>
+  </si>
+  <si>
+    <t>4-12 years</t>
+  </si>
+  <si>
+    <t>3-15 years</t>
+  </si>
+  <si>
+    <t>10 years</t>
+  </si>
+  <si>
+    <t>5 years</t>
+  </si>
+  <si>
+    <t>Reporting entity</t>
+  </si>
+  <si>
+    <t>Spicers (NZ) Limited (the "Group") is a company incorporated and domiciled in New Zealand and registered under the Companies Act 1993.</t>
+  </si>
+  <si>
+    <t>The Group comprises a paper distributor and sign and display company both based in Auckland.</t>
+  </si>
+  <si>
+    <t>The financial statements of the Group are for the year ended 31 December 2022. The financial statements were authorised for issue by the directors on 6June 2023.</t>
+  </si>
+  <si>
+    <t>The financial statements presented are those of Spicers (NZ) Limited (the "Group"). The Group comprises the company and wholly owned subsidiaries Total Supply Limited.</t>
+  </si>
+  <si>
+    <t>Statement of compliance and basis of preparation</t>
+  </si>
+  <si>
+    <t>Statement of compliance</t>
+  </si>
+  <si>
+    <t>The financial statements have been prepared in accordance with Generally Accepted Accounting Principles in New Zealand (NZ GAAP). For the purposes of complying with NZ GAAP the Group is a for- profit entity.</t>
+  </si>
+  <si>
+    <t>They comply with the New Zealand Equivalents to International Financial Reporting Standards Reduced Disclosure Regime ('NZ IFRS RDR') as a Tier 2 for-profit entity in accordance with XRB A1 Application of the Accounting Standards Framework, and other applicable Finai incial Reporting Standards as appropriate to profit-oriented entities. The Company qualifies to report under Tier 2 as it has no public accountability.</t>
+  </si>
+  <si>
+    <t>The Company is a reporting entity for the purposes of the Financial Reporting Act 2013 and its financialstatements comply with the Act.</t>
+  </si>
+  <si>
+    <t>Basis of preparing consolidated financial statements</t>
+  </si>
+  <si>
+    <t>Subsidiaries are entities controlled by the Group. Control exists when the Group is exposed to, or has rights to,variable returns from its involvement in the investee and has the ability to affect those returns through power over the investee. Control is assessed on a continuous basis. The financial statements of subsidiaries are included in the consolidated financial statements from the date the control commences until that control</t>
+  </si>
+  <si>
+    <t>Goodwill arising on acquisition</t>
+  </si>
+  <si>
+    <t>Goodwill arising on acquisition of a subsidiary represents the of the purchase consideration over the fair value of the identifiable net assets acquired. Goodwill is stated at cost less any accumulated impairment losses. Goodwill is allocated to cash generating units and is not amortised but is tested annually for impairment.</t>
+  </si>
+  <si>
+    <t>Intra-group balances and transactions and unrealised gains resulting from intra-group transactions are eliminated in preparing the consolidated financial statements.</t>
+  </si>
+  <si>
+    <t>Basis of measurement and presentation currency</t>
+  </si>
+  <si>
+    <t>The financialstatements are presented in thousands of New Zealand Dollars (NZD) which is the Group's functiona/currency rounded to the nearest dollar. The financial statements are prepared on the historical cost basis except foreignexchange contracts are stated attheir fair value.</t>
+  </si>
+  <si>
+    <t>The accounting policies set out below have been applied consistently to all periods presented in these financial statements.</t>
+  </si>
+  <si>
+    <t>Owned assets</t>
+  </si>
+  <si>
+    <t>Items of property, plant and equipment are stated at cost, less accumulated depreciation and impairment losses.</t>
+  </si>
+  <si>
+    <t>Where material parts of an item of property, plant and equipment have different useful lives, they are accounted for as separate</t>
+  </si>
+  <si>
+    <t>Right-of-use assets</t>
+  </si>
+  <si>
+    <t>Deferred tax asset</t>
+  </si>
+  <si>
+    <t>Total non-current assets</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Issued capital</t>
+  </si>
+  <si>
+    <t>Retained earnings</t>
+  </si>
+  <si>
+    <t>Total equity</t>
+  </si>
+  <si>
+    <t>Employee entitlements</t>
+  </si>
+  <si>
+    <t>Total non-current liabilities</t>
+  </si>
+  <si>
+    <t>Interest-bearing loans and borrowings</t>
+  </si>
+  <si>
+    <t>Current tax liability</t>
+  </si>
+  <si>
+    <t>Total current liabilities</t>
+  </si>
+  <si>
+    <t>Total equity and liabilities</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Profit before taxation</t>
+  </si>
+  <si>
+    <t>Adjustments to reconcile profit before tax to net cash flows</t>
+  </si>
+  <si>
+    <t>Depreciation and impairment of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Amortisation and impairment of intangible assets</t>
+  </si>
+  <si>
+    <t>Depreciation and impairment of ROU assets</t>
+  </si>
+  <si>
+    <t>Interest cost of ROU assets</t>
+  </si>
+  <si>
+    <t>Loss on disposal of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Loss on disposal of intangible assets</t>
+  </si>
+  <si>
+    <t>Movement in working capital balances</t>
+  </si>
+  <si>
+    <t>Cash generated from operating activities</t>
+  </si>
+  <si>
+    <t>Income tax paid</t>
+  </si>
+  <si>
+    <t>Dividends paid</t>
+  </si>
+  <si>
+    <t>Net cash from operating activities</t>
+  </si>
+  <si>
+    <t>Investing activities</t>
+  </si>
+  <si>
+    <t>Purchase of businesses (net of cash acquired)</t>
+  </si>
+  <si>
+    <t>Proceeds from sale of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Purchase of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Purchase of intangible assets</t>
+  </si>
+  <si>
+    <t>Net cash flows used in investing activities</t>
+  </si>
+  <si>
+    <t>Financing activities</t>
+  </si>
+  <si>
+    <t>Proceeds from bank loans</t>
+  </si>
+  <si>
+    <t>Payment of principal portion of lease liabilities</t>
+  </si>
+  <si>
+    <t>Repayment of bank loans</t>
+  </si>
+  <si>
+    <t>Net cash flows from/(used in) financing activities</t>
+  </si>
+  <si>
+    <t>Net increase in cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash and Cash equivalents at 1 January 2022</t>
+  </si>
+  <si>
+    <t>Cash and Cash equivalents at 31 December 2021</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>2399</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>12559</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>(1,188)</t>
+  </si>
+  <si>
+    <t>(6,141)</t>
+  </si>
+  <si>
+    <t>5904</t>
+  </si>
+  <si>
+    <t>(2,459)</t>
+  </si>
+  <si>
+    <t>3445</t>
+  </si>
+  <si>
+    <t>(598)</t>
+  </si>
+  <si>
+    <t>(635)</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>(2,925)</t>
+  </si>
+  <si>
+    <t>(2,426)</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>1925</t>
+  </si>
+  <si>
+    <t>(17)</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Revenue by region</t>
-  </si>
-  <si>
-    <t>Auckland</t>
-  </si>
-  <si>
-    <t>Wellington</t>
-  </si>
-  <si>
-    <t>South Island</t>
-  </si>
-  <si>
-    <t>Other operating income</t>
-  </si>
-  <si>
-    <t>Rental income from property sub-leases</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Impairment of trade receivables (bad and doubtful debts)</t>
-  </si>
-  <si>
-    <t>Net Gain (Loss) on disposal of property, plant and equipment</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Interest income</t>
-  </si>
-  <si>
-    <t>Foreign exchange gains</t>
-  </si>
-  <si>
-    <t>Finance income</t>
-  </si>
-  <si>
-    <t>Interest expense right of use liabilities</t>
-  </si>
-  <si>
-    <t>Foreign exchange losses</t>
-  </si>
-  <si>
-    <t>Finance expenses</t>
-  </si>
-  <si>
-    <t>Net finance costs</t>
-  </si>
-  <si>
-    <t>81441</t>
-  </si>
-  <si>
-    <t>20183</t>
-  </si>
-  <si>
-    <t>26883</t>
-  </si>
-  <si>
-    <t>128507</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>Other operating expenses</t>
-  </si>
-  <si>
-    <t>(298)</t>
-  </si>
-  <si>
-    <t>(4,705)</t>
-  </si>
-  <si>
-    <t>(5,011)</t>
-  </si>
-  <si>
-    <t>Net financing costs</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>(1,405)</t>
-  </si>
-  <si>
-    <t>(199)</t>
-  </si>
-  <si>
-    <t>(1,604)</t>
-  </si>
-  <si>
-    <t>(1,591)</t>
-  </si>
-  <si>
-    <t>68107</t>
-  </si>
-  <si>
-    <t>15671</t>
-  </si>
-  <si>
-    <t>20972</t>
-  </si>
-  <si>
-    <t>104750</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>(73)</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>(3,582)</t>
-  </si>
-  <si>
-    <t>(3,638)</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>(840)</t>
-  </si>
-  <si>
-    <t>(875)</t>
-  </si>
-  <si>
-    <t>(630)</t>
-  </si>
-  <si>
-    <t>Furniture and fittings</t>
-  </si>
-  <si>
-    <t>Motor vehicles</t>
-  </si>
-  <si>
-    <t>Office equipment</t>
-  </si>
-  <si>
-    <t>The residual value of assets is reassessed</t>
-  </si>
-  <si>
-    <t>4-12 years</t>
-  </si>
-  <si>
-    <t>3-15 years</t>
-  </si>
-  <si>
-    <t>10 years</t>
-  </si>
-  <si>
-    <t>5 years</t>
-  </si>
-  <si>
-    <t>Right-of-use assets</t>
-  </si>
-  <si>
-    <t>Deferred tax asset</t>
-  </si>
-  <si>
-    <t>Total non-current assets</t>
-  </si>
-  <si>
-    <t>Total current assets</t>
-  </si>
-  <si>
-    <t>Total assets</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Issued capital</t>
-  </si>
-  <si>
-    <t>Retained earnings</t>
-  </si>
-  <si>
-    <t>Total equity</t>
-  </si>
-  <si>
-    <t>Employee entitlements</t>
-  </si>
-  <si>
-    <t>Total non-current liabilities</t>
-  </si>
-  <si>
-    <t>Interest-bearing loans and borrowings</t>
-  </si>
-  <si>
-    <t>Current tax liability</t>
-  </si>
-  <si>
-    <t>Total current liabilities</t>
-  </si>
-  <si>
-    <t>Total equity and liabilities</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Profit before taxation</t>
-  </si>
-  <si>
-    <t>Adjustments to reconcile profit before tax to net cash flows</t>
-  </si>
-  <si>
-    <t>Depreciation and impairment of property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Amortisation and impairment of intangible assets</t>
-  </si>
-  <si>
-    <t>Depreciation and impairment of ROU assets</t>
-  </si>
-  <si>
-    <t>Interest cost of ROU assets</t>
-  </si>
-  <si>
-    <t>Loss on disposal of property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Loss on disposal of intangible assets</t>
-  </si>
-  <si>
-    <t>Movement in working capital balances</t>
-  </si>
-  <si>
-    <t>Provisions</t>
-  </si>
-  <si>
-    <t>Cash generated from operating activities</t>
-  </si>
-  <si>
-    <t>Income tax paid</t>
-  </si>
-  <si>
-    <t>Dividends paid</t>
-  </si>
-  <si>
-    <t>Net cash from operating activities</t>
-  </si>
-  <si>
-    <t>Investing activities</t>
-  </si>
-  <si>
-    <t>Purchase of businesses (net of cash acquired)</t>
-  </si>
-  <si>
-    <t>Proceeds from sale of property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Purchase of property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Purchase of intangible assets</t>
-  </si>
-  <si>
-    <t>Net cash flows used in investing activities</t>
-  </si>
-  <si>
-    <t>Financing activities</t>
-  </si>
-  <si>
-    <t>Proceeds from bank loans</t>
-  </si>
-  <si>
-    <t>Payment of principal portion of lease liabilities</t>
-  </si>
-  <si>
-    <t>Repayment of bank loans</t>
-  </si>
-  <si>
-    <t>Net cash flows from/(used in) financing activities</t>
-  </si>
-  <si>
-    <t>Net increase in cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Cash and Cash equivalents at 1 January 2022</t>
-  </si>
-  <si>
-    <t>Cash and Cash equivalents at 31 December 2021</t>
-  </si>
-  <si>
-    <t>2022 8,825</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
-    <t>2399</t>
-  </si>
-  <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>12559</t>
-  </si>
-  <si>
-    <t>659</t>
-  </si>
-  <si>
-    <t>(1,188)</t>
-  </si>
-  <si>
-    <t>(6,141)</t>
-  </si>
-  <si>
-    <t>5904</t>
-  </si>
-  <si>
-    <t>(2,459)</t>
-  </si>
-  <si>
-    <t>3445</t>
-  </si>
-  <si>
-    <t>(598)</t>
-  </si>
-  <si>
-    <t>(635)</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>(2,925)</t>
-  </si>
-  <si>
-    <t>(2,426)</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>2021 6,230</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>1925</t>
-  </si>
-  <si>
-    <t>(17)</t>
-  </si>
-  <si>
     <t>9552</t>
   </si>
   <si>
@@ -1510,9 +1892,6 @@
     <t>7506</t>
   </si>
   <si>
-    <t>Revenue</t>
-  </si>
-  <si>
     <t>Cost of sales</t>
   </si>
   <si>
@@ -1610,9 +1989,6 @@
   </si>
   <si>
     <t>Dividends to shareholders</t>
-  </si>
-  <si>
-    <t>Share capital Retained earnings</t>
   </si>
   <si>
     <t>1500</t>
@@ -1991,7 +2367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2007,7 +2383,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2015,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2023,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2031,63 +2407,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
         <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2097,13 +2417,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -2113,62 +2433,53 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3">
+        <v>2022</v>
+      </c>
       <c r="C3">
-        <v>2022</v>
-      </c>
-      <c r="D3">
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>128</v>
       </c>
+      <c r="B4">
+        <v>16257</v>
+      </c>
       <c r="C4">
-        <v>16257</v>
-      </c>
-      <c r="D4">
         <v>22878</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>129</v>
       </c>
-      <c r="B5" t="s">
-        <v>129</v>
+      <c r="B5">
+        <v>458</v>
       </c>
       <c r="C5">
-        <v>458</v>
-      </c>
-      <c r="D5">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>130</v>
       </c>
-      <c r="B6" t="s">
-        <v>130</v>
+      <c r="B6">
+        <v>3373</v>
       </c>
       <c r="C6">
-        <v>3373</v>
-      </c>
-      <c r="D6">
         <v>2366</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
+      <c r="B7">
+        <v>20088</v>
+      </c>
       <c r="C7">
-        <v>20088</v>
-      </c>
-      <c r="D7">
         <v>26321</v>
       </c>
     </row>
@@ -2263,7 +2574,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2288,33 +2599,33 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3">
+        <v>148</v>
+      </c>
+      <c r="C3">
+        <v>136</v>
+      </c>
+    </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4">
-        <v>148</v>
+        <v>497</v>
       </c>
       <c r="C4">
-        <v>136</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
       <c r="B5">
-        <v>497</v>
+        <v>645</v>
       </c>
       <c r="C5">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6">
-        <v>645</v>
-      </c>
-      <c r="C6">
         <v>630</v>
       </c>
     </row>
@@ -2350,10 +2661,10 @@
         <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2394,7 +2705,7 @@
         <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>171</v>
@@ -2669,7 +2980,7 @@
         <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2928,7 +3239,7 @@
         <v>210</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
         <v>258</v>
@@ -2997,117 +3308,112 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>177</v>
-      </c>
-    </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E24" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24" t="s">
-        <v>259</v>
-      </c>
-      <c r="G24" t="s">
-        <v>275</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+      <c r="E25" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" t="s">
+        <v>259</v>
       </c>
       <c r="G25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
-      </c>
-      <c r="E26" t="s">
-        <v>247</v>
-      </c>
-      <c r="F26" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="C27" t="s">
+        <v>214</v>
       </c>
       <c r="D27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E27" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="F27" t="s">
+        <v>260</v>
       </c>
       <c r="G27" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E28" t="s">
-        <v>238</v>
-      </c>
-      <c r="F28" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" t="s">
+        <v>253</v>
+      </c>
+      <c r="G29" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3140,7 +3446,678 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>351</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B19" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>353</v>
+      </c>
+      <c r="C20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>354</v>
+      </c>
+      <c r="B21" t="s">
+        <v>369</v>
+      </c>
+      <c r="C21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>355</v>
+      </c>
+      <c r="B22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B24" t="s">
+        <v>372</v>
+      </c>
+      <c r="C24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B25" t="s">
+        <v>373</v>
+      </c>
+      <c r="C25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3174,206 +4151,496 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>409</v>
+      </c>
+      <c r="C2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H2" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3" t="s">
+        <v>410</v>
+      </c>
       <c r="C3" t="s">
-        <v>286</v>
+        <v>415</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>415</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>426</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>433</v>
       </c>
       <c r="G3" t="s">
-        <v>307</v>
+        <v>438</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" t="s">
+        <v>411</v>
+      </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>416</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>420</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>420</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G5" t="s">
-        <v>287</v>
-      </c>
-      <c r="H5" t="s">
-        <v>294</v>
+        <v>393</v>
+      </c>
+      <c r="B5" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>394</v>
+      </c>
+      <c r="B6" t="s">
+        <v>394</v>
       </c>
       <c r="C6" t="s">
-        <v>288</v>
+        <v>394</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>394</v>
+      </c>
+      <c r="E6" t="s">
+        <v>427</v>
+      </c>
+      <c r="F6" t="s">
+        <v>427</v>
       </c>
       <c r="G6" t="s">
-        <v>288</v>
+        <v>427</v>
       </c>
       <c r="H6" t="s">
-        <v>309</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>395</v>
+      </c>
+      <c r="B7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" t="s">
+        <v>395</v>
       </c>
       <c r="E7" t="s">
-        <v>302</v>
+        <v>428</v>
       </c>
       <c r="F7" t="s">
-        <v>304</v>
+        <v>434</v>
       </c>
       <c r="G7" t="s">
-        <v>302</v>
+        <v>434</v>
       </c>
       <c r="H7" t="s">
-        <v>304</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>396</v>
+      </c>
+      <c r="B8" t="s">
+        <v>396</v>
       </c>
       <c r="C8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G8" t="s">
-        <v>289</v>
-      </c>
-      <c r="H8" t="s">
-        <v>305</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D9" t="s">
-        <v>296</v>
-      </c>
-      <c r="G9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H9" t="s">
-        <v>310</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>417</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
+        <v>417</v>
+      </c>
+      <c r="E10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F10" t="s">
+        <v>417</v>
       </c>
       <c r="G10" t="s">
-        <v>249</v>
+        <v>417</v>
       </c>
       <c r="H10" t="s">
-        <v>297</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>399</v>
+      </c>
+      <c r="B11" t="s">
+        <v>399</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>399</v>
       </c>
       <c r="D11" t="s">
-        <v>298</v>
+        <v>399</v>
+      </c>
+      <c r="E11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F11" t="s">
+        <v>399</v>
       </c>
       <c r="G11" t="s">
-        <v>291</v>
+        <v>399</v>
       </c>
       <c r="H11" t="s">
-        <v>298</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>399</v>
+      </c>
+      <c r="B12" t="s">
+        <v>399</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="D12" t="s">
-        <v>299</v>
+        <v>399</v>
+      </c>
+      <c r="E12" t="s">
+        <v>399</v>
+      </c>
+      <c r="F12" t="s">
+        <v>399</v>
       </c>
       <c r="G12" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="H12" t="s">
-        <v>299</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B13" t="s">
+        <v>399</v>
+      </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>399</v>
       </c>
       <c r="D13" t="s">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="E13" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
       <c r="F13" t="s">
-        <v>306</v>
+        <v>399</v>
       </c>
       <c r="G13" t="s">
-        <v>308</v>
+        <v>399</v>
       </c>
       <c r="H13" t="s">
-        <v>311</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" t="s">
+        <v>421</v>
+      </c>
+      <c r="E14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F14" t="s">
+        <v>435</v>
+      </c>
+      <c r="G14" t="s">
+        <v>435</v>
+      </c>
+      <c r="H14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" t="s">
+        <v>422</v>
+      </c>
+      <c r="F15" t="s">
+        <v>422</v>
+      </c>
+      <c r="G15" t="s">
+        <v>422</v>
+      </c>
+      <c r="H15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" t="s">
+        <v>413</v>
+      </c>
+      <c r="D16" t="s">
+        <v>423</v>
+      </c>
+      <c r="E16" t="s">
+        <v>429</v>
+      </c>
+      <c r="F16" t="s">
+        <v>429</v>
+      </c>
+      <c r="G16" t="s">
+        <v>429</v>
+      </c>
+      <c r="H16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>403</v>
+      </c>
+      <c r="B17" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" t="s">
+        <v>403</v>
+      </c>
+      <c r="D17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E17" t="s">
+        <v>430</v>
+      </c>
+      <c r="F17" t="s">
+        <v>436</v>
+      </c>
+      <c r="G17" t="s">
+        <v>436</v>
+      </c>
+      <c r="H17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B18" t="s">
+        <v>404</v>
+      </c>
+      <c r="C18" t="s">
+        <v>404</v>
+      </c>
+      <c r="D18" t="s">
+        <v>424</v>
+      </c>
+      <c r="E18" t="s">
+        <v>424</v>
+      </c>
+      <c r="F18" t="s">
+        <v>424</v>
+      </c>
+      <c r="G18" t="s">
+        <v>424</v>
+      </c>
+      <c r="H18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>405</v>
+      </c>
+      <c r="B19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D19" t="s">
+        <v>425</v>
+      </c>
+      <c r="E19" t="s">
+        <v>431</v>
+      </c>
+      <c r="F19" t="s">
+        <v>431</v>
+      </c>
+      <c r="G19" t="s">
+        <v>431</v>
+      </c>
+      <c r="H19" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>406</v>
+      </c>
+      <c r="B20" t="s">
+        <v>406</v>
+      </c>
+      <c r="C20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" t="s">
+        <v>406</v>
+      </c>
+      <c r="E20" t="s">
+        <v>406</v>
+      </c>
+      <c r="F20" t="s">
+        <v>406</v>
+      </c>
+      <c r="G20" t="s">
+        <v>406</v>
+      </c>
+      <c r="H20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>406</v>
+      </c>
+      <c r="B21" t="s">
+        <v>406</v>
+      </c>
+      <c r="C21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D21" t="s">
+        <v>406</v>
+      </c>
+      <c r="E21" t="s">
+        <v>406</v>
+      </c>
+      <c r="F21" t="s">
+        <v>406</v>
+      </c>
+      <c r="G21" t="s">
+        <v>406</v>
+      </c>
+      <c r="H21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>408</v>
+      </c>
+      <c r="B23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" t="s">
+        <v>408</v>
+      </c>
+      <c r="D23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E23" t="s">
+        <v>408</v>
+      </c>
+      <c r="F23" t="s">
+        <v>408</v>
+      </c>
+      <c r="G23" t="s">
+        <v>408</v>
+      </c>
+      <c r="H23" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -3381,448 +4648,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>321</v>
-      </c>
-      <c r="B15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>322</v>
-      </c>
-      <c r="B16" t="s">
-        <v>332</v>
-      </c>
-      <c r="C16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>324</v>
-      </c>
-      <c r="B18" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C4" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>346</v>
-      </c>
-      <c r="B6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>348</v>
-      </c>
-      <c r="B9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>349</v>
-      </c>
-      <c r="B10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>350</v>
-      </c>
-      <c r="B12" t="s">
-        <v>368</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C13" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B14" t="s">
-        <v>305</v>
-      </c>
-      <c r="C14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>349</v>
-      </c>
-      <c r="B15" t="s">
-        <v>370</v>
-      </c>
-      <c r="C15" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
-        <v>371</v>
-      </c>
-      <c r="C16" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>353</v>
-      </c>
-      <c r="B17" t="s">
-        <v>372</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>354</v>
-      </c>
-      <c r="B18" t="s">
-        <v>373</v>
-      </c>
-      <c r="C18" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>355</v>
-      </c>
-      <c r="C19" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>356</v>
-      </c>
-      <c r="B20" t="s">
-        <v>373</v>
-      </c>
-      <c r="C20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>357</v>
-      </c>
-      <c r="B21" t="s">
-        <v>374</v>
-      </c>
-      <c r="C21" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>358</v>
-      </c>
-      <c r="B22" t="s">
-        <v>375</v>
-      </c>
-      <c r="C22" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>359</v>
-      </c>
-      <c r="B23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C23" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>360</v>
-      </c>
-      <c r="B24" t="s">
-        <v>377</v>
-      </c>
-      <c r="C24" t="s">
-        <v>392</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3838,428 +4666,258 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>449</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B6" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C2">
-        <v>2022</v>
-      </c>
-      <c r="D2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4">
-        <v>2305</v>
-      </c>
-      <c r="D4">
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5">
-        <v>8661</v>
-      </c>
-      <c r="D5">
-        <v>10497</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B6" t="s">
-        <v>417</v>
-      </c>
-      <c r="C6">
-        <v>1553</v>
-      </c>
-      <c r="D6">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C7">
-        <v>16850</v>
-      </c>
-      <c r="D7">
-        <v>16890</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C8">
-        <v>29369</v>
-      </c>
-      <c r="D8">
-        <v>30864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>453</v>
+      </c>
+      <c r="B8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C9">
-        <v>37082</v>
-      </c>
-      <c r="D9">
-        <v>35894</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10">
-        <v>21213</v>
-      </c>
-      <c r="D10">
-        <v>21872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>373</v>
-      </c>
-      <c r="C12">
-        <v>5014</v>
-      </c>
-      <c r="D12">
-        <v>4630</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>404</v>
-      </c>
-      <c r="C13">
-        <v>63309</v>
-      </c>
-      <c r="D13">
-        <v>62396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>457</v>
+      </c>
+      <c r="B13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>405</v>
-      </c>
-      <c r="C14">
-        <v>92678</v>
-      </c>
-      <c r="D14">
-        <v>93260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>458</v>
+      </c>
+      <c r="B14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>459</v>
+      </c>
+      <c r="B15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>407</v>
-      </c>
-      <c r="B16" t="s">
-        <v>421</v>
-      </c>
-      <c r="C16">
-        <v>1500</v>
-      </c>
-      <c r="D16">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>408</v>
-      </c>
-      <c r="C17">
-        <v>40592</v>
-      </c>
-      <c r="D17">
-        <v>33896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>461</v>
+      </c>
+      <c r="B17" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>409</v>
-      </c>
-      <c r="C18">
-        <v>42092</v>
-      </c>
-      <c r="D18">
-        <v>35396</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>461</v>
+      </c>
+      <c r="B18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>461</v>
+      </c>
+      <c r="B19" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>461</v>
       </c>
       <c r="B20" t="s">
-        <v>385</v>
-      </c>
-      <c r="C20">
-        <v>7490</v>
-      </c>
-      <c r="D20">
-        <v>8832</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>410</v>
-      </c>
-      <c r="B21" t="s">
-        <v>422</v>
-      </c>
-      <c r="C21">
-        <v>148</v>
-      </c>
-      <c r="D21">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>411</v>
-      </c>
-      <c r="C22">
-        <v>7638</v>
-      </c>
-      <c r="D22">
-        <v>8968</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>462</v>
+      </c>
+      <c r="B22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>412</v>
-      </c>
-      <c r="B23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23">
-        <v>16521</v>
-      </c>
-      <c r="D23">
-        <v>16122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>464</v>
       </c>
       <c r="B24" t="s">
-        <v>385</v>
-      </c>
-      <c r="C24">
-        <v>2432</v>
-      </c>
-      <c r="D24">
-        <v>2741</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>464</v>
       </c>
       <c r="B25" t="s">
-        <v>423</v>
-      </c>
-      <c r="C25">
-        <v>20088</v>
-      </c>
-      <c r="D25">
-        <v>26321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>464</v>
       </c>
       <c r="B26" t="s">
-        <v>420</v>
-      </c>
-      <c r="C26">
-        <v>1882</v>
-      </c>
-      <c r="D26">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>413</v>
-      </c>
-      <c r="C27">
-        <v>1428</v>
-      </c>
-      <c r="D27">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>410</v>
-      </c>
-      <c r="B28" t="s">
-        <v>422</v>
-      </c>
-      <c r="C28">
-        <v>497</v>
-      </c>
-      <c r="D28">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>414</v>
-      </c>
-      <c r="C29">
-        <v>42948</v>
-      </c>
-      <c r="D29">
-        <v>48896</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30">
-        <v>50586</v>
-      </c>
-      <c r="D30">
-        <v>57864</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>415</v>
-      </c>
-      <c r="C31">
-        <v>92678</v>
-      </c>
-      <c r="D31">
-        <v>93260</v>
+        <v>469</v>
+      </c>
+      <c r="B31" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>469</v>
+      </c>
+      <c r="B32" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>470</v>
+      </c>
+      <c r="B33" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>473</v>
+      </c>
+      <c r="B36" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>473</v>
+      </c>
+      <c r="B37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>474</v>
+      </c>
+      <c r="B38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -4285,31 +4943,31 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4319,7 +4977,792 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>482</v>
+      </c>
+      <c r="B10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>483</v>
+      </c>
+      <c r="B13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>483</v>
+      </c>
+      <c r="B15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>483</v>
+      </c>
+      <c r="B16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>483</v>
+      </c>
+      <c r="B17" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>484</v>
+      </c>
+      <c r="B18" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>484</v>
+      </c>
+      <c r="B19" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>486</v>
+      </c>
+      <c r="B21" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>486</v>
+      </c>
+      <c r="B22" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>487</v>
+      </c>
+      <c r="B23" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>488</v>
+      </c>
+      <c r="B24" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>490</v>
+      </c>
+      <c r="B26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>490</v>
+      </c>
+      <c r="B27" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>491</v>
+      </c>
+      <c r="B28" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>491</v>
+      </c>
+      <c r="B29" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>491</v>
+      </c>
+      <c r="B30" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B31" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>493</v>
+      </c>
+      <c r="B32" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>493</v>
+      </c>
+      <c r="B33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>494</v>
+      </c>
+      <c r="B34" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>495</v>
+      </c>
+      <c r="B35" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>495</v>
+      </c>
+      <c r="B36" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>496</v>
+      </c>
+      <c r="B37" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>496</v>
+      </c>
+      <c r="B38" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>497</v>
+      </c>
+      <c r="B39" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>497</v>
+      </c>
+      <c r="B40" t="s">
+        <v>497</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>511</v>
+      </c>
+      <c r="B8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>514</v>
+      </c>
+      <c r="B12" t="s">
+        <v>514</v>
+      </c>
+      <c r="C12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B14" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>515</v>
+      </c>
+      <c r="B16" t="s">
+        <v>515</v>
+      </c>
+      <c r="C16" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>515</v>
+      </c>
+      <c r="B17" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>516</v>
+      </c>
+      <c r="B18" t="s">
+        <v>516</v>
+      </c>
+      <c r="C18" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>516</v>
+      </c>
+      <c r="B19" t="s">
+        <v>516</v>
+      </c>
+      <c r="C19" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>517</v>
+      </c>
+      <c r="B20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>518</v>
+      </c>
+      <c r="B21" t="s">
+        <v>518</v>
+      </c>
+      <c r="C21" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>518</v>
+      </c>
+      <c r="B22" t="s">
+        <v>518</v>
+      </c>
+      <c r="C22" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>518</v>
+      </c>
+      <c r="B23" t="s">
+        <v>518</v>
+      </c>
+      <c r="C23" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>518</v>
+      </c>
+      <c r="B24" t="s">
+        <v>518</v>
+      </c>
+      <c r="C24" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B26" t="s">
+        <v>520</v>
+      </c>
+      <c r="C26" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>520</v>
+      </c>
+      <c r="B27" t="s">
+        <v>520</v>
+      </c>
+      <c r="C27" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>520</v>
+      </c>
+      <c r="B28" t="s">
+        <v>520</v>
+      </c>
+      <c r="C28" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>521</v>
+      </c>
+      <c r="B29" t="s">
+        <v>521</v>
+      </c>
+      <c r="C29" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>521</v>
+      </c>
+      <c r="B30" t="s">
+        <v>521</v>
+      </c>
+      <c r="C30" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>522</v>
+      </c>
+      <c r="B31" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>523</v>
+      </c>
+      <c r="B32" t="s">
+        <v>523</v>
+      </c>
+      <c r="C32" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>523</v>
+      </c>
+      <c r="B33" t="s">
+        <v>523</v>
+      </c>
+      <c r="C33" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>523</v>
+      </c>
+      <c r="B34" t="s">
+        <v>523</v>
+      </c>
+      <c r="C34" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>524</v>
+      </c>
+      <c r="B35" t="s">
+        <v>524</v>
+      </c>
+      <c r="C35" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>526</v>
+      </c>
+      <c r="B38" t="s">
+        <v>526</v>
+      </c>
+      <c r="C38" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>527</v>
+      </c>
+      <c r="B39" t="s">
+        <v>527</v>
+      </c>
+      <c r="C39" t="s">
+        <v>527</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4340,343 +5783,357 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>424</v>
-      </c>
       <c r="B2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D2" t="s">
-        <v>469</v>
+        <v>543</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D4" t="s">
-        <v>470</v>
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>2305</v>
+      </c>
+      <c r="D4">
+        <v>2254</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>528</v>
       </c>
       <c r="B5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" t="s">
-        <v>471</v>
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>8661</v>
+      </c>
+      <c r="D5">
+        <v>10497</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>529</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D6" t="s">
-        <v>472</v>
+        <v>544</v>
+      </c>
+      <c r="C6">
+        <v>1553</v>
+      </c>
+      <c r="D6">
+        <v>1223</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
+        <v>545</v>
+      </c>
+      <c r="C7">
+        <v>16850</v>
+      </c>
+      <c r="D7">
+        <v>16890</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>430</v>
-      </c>
-      <c r="B8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C8" t="s">
-        <v>455</v>
-      </c>
-      <c r="D8" t="s">
-        <v>473</v>
+        <v>530</v>
+      </c>
+      <c r="C8">
+        <v>29369</v>
+      </c>
+      <c r="D8">
+        <v>30864</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>431</v>
-      </c>
-      <c r="D9" t="s">
-        <v>342</v>
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C9">
+        <v>37082</v>
+      </c>
+      <c r="D9">
+        <v>35894</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" t="s">
-        <v>456</v>
-      </c>
-      <c r="D10" t="s">
-        <v>474</v>
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10">
+        <v>21213</v>
+      </c>
+      <c r="D10">
+        <v>21872</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>457</v>
-      </c>
-      <c r="D12" t="s">
-        <v>475</v>
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12">
+        <v>5014</v>
+      </c>
+      <c r="D12">
+        <v>4630</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>458</v>
-      </c>
-      <c r="D13" t="s">
-        <v>476</v>
+        <v>531</v>
+      </c>
+      <c r="C13">
+        <v>63309</v>
+      </c>
+      <c r="D13">
+        <v>62396</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>459</v>
-      </c>
-      <c r="D14" t="s">
-        <v>477</v>
+        <v>532</v>
+      </c>
+      <c r="C14">
+        <v>92678</v>
+      </c>
+      <c r="D14">
+        <v>93260</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>433</v>
-      </c>
-      <c r="C15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>434</v>
-      </c>
-      <c r="C16" t="s">
-        <v>460</v>
-      </c>
-      <c r="D16" t="s">
-        <v>479</v>
+        <v>534</v>
+      </c>
+      <c r="B16" t="s">
+        <v>548</v>
+      </c>
+      <c r="C16">
+        <v>1500</v>
+      </c>
+      <c r="D16">
+        <v>1500</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>435</v>
-      </c>
-      <c r="C17" t="s">
-        <v>461</v>
-      </c>
-      <c r="D17" t="s">
-        <v>480</v>
+        <v>535</v>
+      </c>
+      <c r="C17">
+        <v>40592</v>
+      </c>
+      <c r="D17">
+        <v>33896</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>436</v>
-      </c>
-      <c r="B18" t="s">
-        <v>421</v>
+        <v>536</v>
+      </c>
+      <c r="C18">
+        <v>42092</v>
+      </c>
+      <c r="D18">
+        <v>35396</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>437</v>
-      </c>
-      <c r="C19" t="s">
-        <v>462</v>
-      </c>
-      <c r="D19" t="s">
-        <v>481</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20">
+        <v>7490</v>
+      </c>
+      <c r="D20">
+        <v>8832</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>439</v>
-      </c>
-      <c r="D21" t="s">
-        <v>482</v>
+        <v>537</v>
+      </c>
+      <c r="B21" t="s">
+        <v>549</v>
+      </c>
+      <c r="C21">
+        <v>148</v>
+      </c>
+      <c r="D21">
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>440</v>
-      </c>
-      <c r="C22" t="s">
-        <v>419</v>
-      </c>
-      <c r="D22" t="s">
-        <v>483</v>
+        <v>538</v>
+      </c>
+      <c r="C22">
+        <v>7638</v>
+      </c>
+      <c r="D22">
+        <v>8968</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>441</v>
+        <v>539</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>463</v>
-      </c>
-      <c r="D23" t="s">
-        <v>484</v>
+        <v>162</v>
+      </c>
+      <c r="C23">
+        <v>16521</v>
+      </c>
+      <c r="D23">
+        <v>16122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>442</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>418</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" t="s">
-        <v>485</v>
+        <v>381</v>
+      </c>
+      <c r="C24">
+        <v>2432</v>
+      </c>
+      <c r="D24">
+        <v>2741</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>443</v>
-      </c>
-      <c r="C25" t="s">
-        <v>464</v>
-      </c>
-      <c r="D25" t="s">
-        <v>486</v>
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>550</v>
+      </c>
+      <c r="C25">
+        <v>20088</v>
+      </c>
+      <c r="D25">
+        <v>26321</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>444</v>
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>547</v>
+      </c>
+      <c r="C26">
+        <v>1882</v>
+      </c>
+      <c r="D26">
+        <v>1790</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>445</v>
-      </c>
-      <c r="C27" t="s">
-        <v>465</v>
-      </c>
-      <c r="D27" t="s">
-        <v>119</v>
+        <v>540</v>
+      </c>
+      <c r="C27">
+        <v>1428</v>
+      </c>
+      <c r="D27">
+        <v>1428</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>446</v>
-      </c>
-      <c r="C28" t="s">
-        <v>466</v>
-      </c>
-      <c r="D28" t="s">
-        <v>487</v>
+        <v>537</v>
+      </c>
+      <c r="B28" t="s">
+        <v>549</v>
+      </c>
+      <c r="C28">
+        <v>497</v>
+      </c>
+      <c r="D28">
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>447</v>
+        <v>541</v>
+      </c>
+      <c r="C29">
+        <v>42948</v>
+      </c>
+      <c r="D29">
+        <v>48896</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>448</v>
-      </c>
-      <c r="C30" t="s">
-        <v>467</v>
-      </c>
-      <c r="D30" t="s">
-        <v>488</v>
+        <v>95</v>
+      </c>
+      <c r="C30">
+        <v>50586</v>
+      </c>
+      <c r="D30">
+        <v>57864</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>449</v>
-      </c>
-      <c r="C31" t="s">
-        <v>468</v>
-      </c>
-      <c r="D31" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>450</v>
-      </c>
-      <c r="B32" t="s">
-        <v>373</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>451</v>
-      </c>
-      <c r="B33" t="s">
-        <v>373</v>
-      </c>
-      <c r="C33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" t="s">
-        <v>117</v>
+        <v>542</v>
+      </c>
+      <c r="C31">
+        <v>92678</v>
+      </c>
+      <c r="D31">
+        <v>93260</v>
       </c>
     </row>
   </sheetData>
@@ -4684,9 +6141,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4708,7 +6165,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>416</v>
+        <v>543</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
@@ -4719,179 +6176,342 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B3" t="s">
-        <v>342</v>
+        <v>551</v>
       </c>
       <c r="C3" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D3" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C4" t="s">
-        <v>505</v>
-      </c>
-      <c r="D4" t="s">
-        <v>512</v>
+        <v>552</v>
+      </c>
+      <c r="B4" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>493</v>
+        <v>553</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>506</v>
+        <v>579</v>
       </c>
       <c r="D5" t="s">
-        <v>513</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>554</v>
+      </c>
+      <c r="B6" t="s">
+        <v>545</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
-        <v>366</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>495</v>
+        <v>555</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>507</v>
+        <v>580</v>
       </c>
       <c r="D7" t="s">
-        <v>514</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>496</v>
+        <v>556</v>
+      </c>
+      <c r="B8" t="s">
+        <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>515</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>497</v>
+        <v>557</v>
+      </c>
+      <c r="B9" t="s">
+        <v>578</v>
       </c>
       <c r="C9" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
       <c r="D9" t="s">
-        <v>516</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>498</v>
-      </c>
-      <c r="B10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C10" t="s">
-        <v>371</v>
+        <v>558</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>499</v>
-      </c>
       <c r="C11" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="D11" t="s">
-        <v>517</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>500</v>
-      </c>
-      <c r="C12" t="s">
-        <v>373</v>
-      </c>
-      <c r="D12" t="s">
-        <v>518</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>376</v>
+        <v>583</v>
       </c>
       <c r="D13" t="s">
-        <v>519</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>372</v>
-      </c>
-      <c r="B14" t="s">
-        <v>353</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>377</v>
+        <v>584</v>
       </c>
       <c r="D14" t="s">
-        <v>392</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>502</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>330</v>
+        <v>585</v>
       </c>
       <c r="D15" t="s">
-        <v>339</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>503</v>
-      </c>
-      <c r="B16" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="C16" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="C17" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="D17" t="s">
-        <v>520</v>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>561</v>
+      </c>
+      <c r="C18" t="s">
+        <v>587</v>
+      </c>
+      <c r="D18" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>562</v>
+      </c>
+      <c r="B19" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>563</v>
+      </c>
+      <c r="C20" t="s">
+        <v>588</v>
+      </c>
+      <c r="D20" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>565</v>
+      </c>
+      <c r="D22" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>566</v>
+      </c>
+      <c r="C23" t="s">
+        <v>546</v>
+      </c>
+      <c r="D23" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>567</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>589</v>
+      </c>
+      <c r="D24" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>568</v>
+      </c>
+      <c r="B25" t="s">
+        <v>545</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>569</v>
+      </c>
+      <c r="C26" t="s">
+        <v>590</v>
+      </c>
+      <c r="D26" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>571</v>
+      </c>
+      <c r="C28" t="s">
+        <v>591</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>572</v>
+      </c>
+      <c r="C29" t="s">
+        <v>592</v>
+      </c>
+      <c r="D29" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>574</v>
+      </c>
+      <c r="C31" t="s">
+        <v>593</v>
+      </c>
+      <c r="D31" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>575</v>
+      </c>
+      <c r="C32" t="s">
+        <v>594</v>
+      </c>
+      <c r="D32" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>576</v>
+      </c>
+      <c r="B33" t="s">
+        <v>369</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>577</v>
+      </c>
+      <c r="B34" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4899,15 +6519,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -4920,122 +6540,320 @@
       <c r="D1" s="1">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>618</v>
+      </c>
+      <c r="C5" t="s">
+        <v>631</v>
+      </c>
+      <c r="D5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>619</v>
+      </c>
+      <c r="B6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C7" t="s">
+        <v>632</v>
+      </c>
+      <c r="D7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C8" t="s">
+        <v>633</v>
+      </c>
+      <c r="D8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>622</v>
+      </c>
+      <c r="C9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D9" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>623</v>
+      </c>
+      <c r="B10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>624</v>
+      </c>
+      <c r="C11" t="s">
+        <v>635</v>
+      </c>
+      <c r="D11" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>625</v>
+      </c>
+      <c r="C13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>626</v>
+      </c>
+      <c r="C14" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>468</v>
+      </c>
+      <c r="B15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>627</v>
+      </c>
+      <c r="C16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>628</v>
+      </c>
+      <c r="B17" t="s">
+        <v>544</v>
+      </c>
+      <c r="C17" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>629</v>
+      </c>
+      <c r="C18" t="s">
+        <v>636</v>
+      </c>
+      <c r="D18" t="s">
+        <v>645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
       <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="G2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C3" t="s">
+        <v>451</v>
+      </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>535</v>
       </c>
       <c r="E3" t="s">
-        <v>525</v>
-      </c>
-      <c r="F3" t="s">
-        <v>525</v>
-      </c>
-      <c r="G3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>521</v>
+        <v>646</v>
+      </c>
+      <c r="C4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D4" t="s">
+        <v>651</v>
       </c>
       <c r="E4" t="s">
-        <v>526</v>
-      </c>
-      <c r="F4" t="s">
-        <v>527</v>
-      </c>
-      <c r="G4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B5" t="s">
-        <v>504</v>
-      </c>
-      <c r="C5" t="s">
-        <v>504</v>
-      </c>
-      <c r="F5" t="s">
-        <v>520</v>
-      </c>
-      <c r="G5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>629</v>
+      </c>
+      <c r="D5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>522</v>
-      </c>
-      <c r="D6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>647</v>
+      </c>
+      <c r="B6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>141</v>
       </c>
+      <c r="C7" t="s">
+        <v>650</v>
+      </c>
+      <c r="D7" t="s">
+        <v>652</v>
+      </c>
       <c r="E7" t="s">
-        <v>526</v>
-      </c>
-      <c r="F7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>523</v>
-      </c>
-      <c r="B8" t="s">
-        <v>523</v>
-      </c>
-      <c r="C8" t="s">
-        <v>523</v>
-      </c>
-      <c r="F8" t="s">
-        <v>511</v>
-      </c>
-      <c r="G8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>648</v>
+      </c>
+      <c r="D8" t="s">
+        <v>636</v>
+      </c>
+      <c r="E8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>649</v>
+      </c>
+      <c r="B9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>143</v>
       </c>
+      <c r="C10" t="s">
+        <v>650</v>
+      </c>
+      <c r="D10" t="s">
+        <v>653</v>
+      </c>
       <c r="E10" t="s">
-        <v>526</v>
-      </c>
-      <c r="F10" t="s">
-        <v>529</v>
-      </c>
-      <c r="G10" t="s">
-        <v>532</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -5045,7 +6863,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5061,31 +6879,87 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5220,25 +7094,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>56</v>
+      <c r="B3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5248,7 +7128,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5273,10 +7153,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -5289,70 +7169,54 @@
       </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5391,13 +7255,13 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
         <v>72</v>
@@ -5405,54 +7269,60 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5462,7 +7332,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5486,124 +7356,119 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>88</v>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>103</v>
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5638,7 +7503,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5646,13 +7511,13 @@
         <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
         <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5660,7 +7525,7 @@
         <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>116</v>
@@ -5676,7 +7541,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>117</v>
@@ -5687,10 +7552,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
         <v>118</v>
@@ -5715,7 +7580,7 @@
         <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
         <v>121</v>
@@ -5745,7 +7610,7 @@
         <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
         <v>119</v>
